--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1255.335312379771</v>
+        <v>1367.483752866485</v>
       </c>
       <c r="AB2" t="n">
-        <v>1717.605155883356</v>
+        <v>1871.051599797285</v>
       </c>
       <c r="AC2" t="n">
-        <v>1553.679330479825</v>
+        <v>1692.481061150045</v>
       </c>
       <c r="AD2" t="n">
-        <v>1255335.312379771</v>
+        <v>1367483.752866485</v>
       </c>
       <c r="AE2" t="n">
-        <v>1717605.155883356</v>
+        <v>1871051.599797285</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233458669935204e-06</v>
+        <v>1.778233470855126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.64192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1553679.330479825</v>
+        <v>1692481.061150045</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.9737914921799</v>
+        <v>671.0407338560477</v>
       </c>
       <c r="AB3" t="n">
-        <v>823.6470987289681</v>
+        <v>918.1475362896614</v>
       </c>
       <c r="AC3" t="n">
-        <v>745.039375622238</v>
+        <v>830.5208240543359</v>
       </c>
       <c r="AD3" t="n">
-        <v>601973.7914921799</v>
+        <v>671040.7338560477</v>
       </c>
       <c r="AE3" t="n">
-        <v>823647.0987289681</v>
+        <v>918147.5362896614</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.935944706767577e-06</v>
+        <v>2.790982591641892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.69986979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>745039.375622238</v>
+        <v>830520.8240543359</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>472.0233165878028</v>
+        <v>532.4568911561872</v>
       </c>
       <c r="AB4" t="n">
-        <v>645.8431259544624</v>
+        <v>728.5310088200691</v>
       </c>
       <c r="AC4" t="n">
-        <v>584.204764459888</v>
+        <v>659.0010318379738</v>
       </c>
       <c r="AD4" t="n">
-        <v>472023.3165878028</v>
+        <v>532456.8911561873</v>
       </c>
       <c r="AE4" t="n">
-        <v>645843.1259544623</v>
+        <v>728531.0088200691</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.215109147241899e-06</v>
+        <v>3.193444031188999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.720703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>584204.764459888</v>
+        <v>659001.0318379737</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>415.2243557221489</v>
+        <v>475.5725894359617</v>
       </c>
       <c r="AB5" t="n">
-        <v>568.1282819047713</v>
+        <v>650.6993976481803</v>
       </c>
       <c r="AC5" t="n">
-        <v>513.9069160528309</v>
+        <v>588.5975603989776</v>
       </c>
       <c r="AD5" t="n">
-        <v>415224.3557221489</v>
+        <v>475572.5894359617</v>
       </c>
       <c r="AE5" t="n">
-        <v>568128.2819047712</v>
+        <v>650699.3976481803</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.339099239867283e-06</v>
+        <v>3.372196135442698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>513906.9160528308</v>
+        <v>588597.5603989776</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>416.4572930356302</v>
+        <v>476.805526749443</v>
       </c>
       <c r="AB6" t="n">
-        <v>569.8152411304318</v>
+        <v>652.3863568738408</v>
       </c>
       <c r="AC6" t="n">
-        <v>515.4328742576564</v>
+        <v>590.1235186038034</v>
       </c>
       <c r="AD6" t="n">
-        <v>416457.2930356303</v>
+        <v>476805.526749443</v>
       </c>
       <c r="AE6" t="n">
-        <v>569815.2411304318</v>
+        <v>652386.3568738408</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.343394077413042e-06</v>
+        <v>3.378387849897268e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH6" t="n">
-        <v>515432.8742576565</v>
+        <v>590123.5186038034</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>874.4465391239818</v>
+        <v>966.9528573744434</v>
       </c>
       <c r="AB2" t="n">
-        <v>1196.45633268805</v>
+        <v>1323.027558409064</v>
       </c>
       <c r="AC2" t="n">
-        <v>1082.268219533311</v>
+        <v>1196.759665115343</v>
       </c>
       <c r="AD2" t="n">
-        <v>874446.5391239817</v>
+        <v>966952.8573744434</v>
       </c>
       <c r="AE2" t="n">
-        <v>1196456.33268805</v>
+        <v>1323027.558409064</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.518619405946371e-06</v>
+        <v>2.223201681433637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1082268.219533311</v>
+        <v>1196759.665115343</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.9023491893759</v>
+        <v>533.7390627283766</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.7823453738889</v>
+        <v>730.285332530556</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.7680303066537</v>
+        <v>660.5879253557406</v>
       </c>
       <c r="AD3" t="n">
-        <v>474902.3491893759</v>
+        <v>533739.0627283766</v>
       </c>
       <c r="AE3" t="n">
-        <v>649782.345373889</v>
+        <v>730285.332530556</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.185931081560661e-06</v>
+        <v>3.200120870966486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.384765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>587768.0303066537</v>
+        <v>660587.9253557406</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.1422138591717</v>
+        <v>448.646844697741</v>
       </c>
       <c r="AB4" t="n">
-        <v>544.7557417969343</v>
+        <v>613.8584058173253</v>
       </c>
       <c r="AC4" t="n">
-        <v>492.7650183693196</v>
+        <v>555.2726211218027</v>
       </c>
       <c r="AD4" t="n">
-        <v>398142.2138591717</v>
+        <v>448646.844697741</v>
       </c>
       <c r="AE4" t="n">
-        <v>544755.7417969343</v>
+        <v>613858.4058173253</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.387505761978525e-06</v>
+        <v>3.495218620069838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.17057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>492765.0183693197</v>
+        <v>555272.6211218027</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>398.7999408780524</v>
+        <v>449.3045717166216</v>
       </c>
       <c r="AB5" t="n">
-        <v>545.6556729210349</v>
+        <v>614.7583369414259</v>
       </c>
       <c r="AC5" t="n">
-        <v>493.5790613299974</v>
+        <v>556.0866640824805</v>
       </c>
       <c r="AD5" t="n">
-        <v>398799.9408780524</v>
+        <v>449304.5717166216</v>
       </c>
       <c r="AE5" t="n">
-        <v>545655.672921035</v>
+        <v>614758.3369414259</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.390596509354361e-06</v>
+        <v>3.499743357957383e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>493579.0613299974</v>
+        <v>556086.6640824805</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.89655495979</v>
+        <v>420.9495239791372</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.0580998945252</v>
+        <v>575.9617096905802</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.1922040449628</v>
+        <v>520.992732485047</v>
       </c>
       <c r="AD2" t="n">
-        <v>358896.55495979</v>
+        <v>420949.5239791372</v>
       </c>
       <c r="AE2" t="n">
-        <v>491058.0998945253</v>
+        <v>575961.7096905801</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39100488799351e-06</v>
+        <v>3.699179690429245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.67447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>444192.2040449628</v>
+        <v>520992.732485047</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.2938774144657</v>
+        <v>417.346846433813</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.1287575380967</v>
+        <v>571.0323673341517</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.7333112046564</v>
+        <v>516.5338396447406</v>
       </c>
       <c r="AD3" t="n">
-        <v>355293.8774144657</v>
+        <v>417346.846433813</v>
       </c>
       <c r="AE3" t="n">
-        <v>486128.7575380967</v>
+        <v>571032.3673341516</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412883364092796e-06</v>
+        <v>3.733028393478924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.541015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>439733.3112046564</v>
+        <v>516533.8396447406</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.2271764111766</v>
+        <v>551.3136491591127</v>
       </c>
       <c r="AB2" t="n">
-        <v>666.6457177117588</v>
+        <v>754.3316570211221</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.021986056489</v>
+        <v>682.3393023861554</v>
       </c>
       <c r="AD2" t="n">
-        <v>487227.1764111766</v>
+        <v>551313.6491591127</v>
       </c>
       <c r="AE2" t="n">
-        <v>666645.7177117588</v>
+        <v>754331.6570211221</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.091704009556721e-06</v>
+        <v>3.161179653403643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.044921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>603021.9860564891</v>
+        <v>682339.3023861554</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>362.0870506216567</v>
+        <v>418.2373092038688</v>
       </c>
       <c r="AB3" t="n">
-        <v>495.423476813826</v>
+        <v>572.250737780587</v>
       </c>
       <c r="AC3" t="n">
-        <v>448.1409555179305</v>
+        <v>517.6359305257618</v>
       </c>
       <c r="AD3" t="n">
-        <v>362087.0506216567</v>
+        <v>418237.3092038688</v>
       </c>
       <c r="AE3" t="n">
-        <v>495423.476813826</v>
+        <v>572250.7377805869</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436283040460183e-06</v>
+        <v>3.681939864458749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.77604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>448140.9555179305</v>
+        <v>517635.9305257618</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.1786081043248</v>
+        <v>416.6491012014541</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.3392850995253</v>
+        <v>570.0776815248911</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.8283077146083</v>
+        <v>515.670267709206</v>
       </c>
       <c r="AD2" t="n">
-        <v>356178.6081043248</v>
+        <v>416649.1012014541</v>
       </c>
       <c r="AE2" t="n">
-        <v>487339.2850995253</v>
+        <v>570077.6815248911</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332036685415829e-06</v>
+        <v>3.685755974337922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>440828.3077146083</v>
+        <v>515670.267709206</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>957.8654532176832</v>
+        <v>1051.081462394527</v>
       </c>
       <c r="AB2" t="n">
-        <v>1310.593771133808</v>
+        <v>1438.136027289651</v>
       </c>
       <c r="AC2" t="n">
-        <v>1185.512541046707</v>
+        <v>1300.882343281718</v>
       </c>
       <c r="AD2" t="n">
-        <v>957865.4532176832</v>
+        <v>1051081.462394527</v>
       </c>
       <c r="AE2" t="n">
-        <v>1310593.771133808</v>
+        <v>1438136.027289651</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.442665187956132e-06</v>
+        <v>2.103241797006823e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.59830729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1185512.541046707</v>
+        <v>1300882.343281718</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>504.5643454129084</v>
+        <v>572.2724657778593</v>
       </c>
       <c r="AB3" t="n">
-        <v>690.3671972018433</v>
+        <v>783.0084345566228</v>
       </c>
       <c r="AC3" t="n">
-        <v>624.4795208373454</v>
+        <v>708.2792085217778</v>
       </c>
       <c r="AD3" t="n">
-        <v>504564.3454129084</v>
+        <v>572272.4657778593</v>
       </c>
       <c r="AE3" t="n">
-        <v>690367.1972018433</v>
+        <v>783008.4345566228</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.116904411945184e-06</v>
+        <v>3.086205917104755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.72005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>624479.5208373454</v>
+        <v>708279.2085217779</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.6375842588752</v>
+        <v>460.4827696820682</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.4842147177584</v>
+        <v>630.0528405450395</v>
       </c>
       <c r="AC4" t="n">
-        <v>506.9923879096307</v>
+        <v>569.9214817281359</v>
       </c>
       <c r="AD4" t="n">
-        <v>409637.5842588752</v>
+        <v>460482.7696820683</v>
       </c>
       <c r="AE4" t="n">
-        <v>560484.2147177584</v>
+        <v>630052.8405450395</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360315875120107e-06</v>
+        <v>3.441072151830629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.19986979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>506992.3879096307</v>
+        <v>569921.4817281358</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.2685732888141</v>
+        <v>455.1137587120072</v>
       </c>
       <c r="AB5" t="n">
-        <v>553.1380970444739</v>
+        <v>622.7067228717551</v>
       </c>
       <c r="AC5" t="n">
-        <v>500.3473733967435</v>
+        <v>563.2764672152488</v>
       </c>
       <c r="AD5" t="n">
-        <v>404268.5732888142</v>
+        <v>455113.7587120072</v>
       </c>
       <c r="AE5" t="n">
-        <v>553138.0970444739</v>
+        <v>622706.7228717551</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.38032098554227e-06</v>
+        <v>3.4702373280232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.08919270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>500347.3733967436</v>
+        <v>563276.4672152487</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.3733817960292</v>
+        <v>431.2062987708518</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.5517359924152</v>
+        <v>589.9954814575724</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.9706580310544</v>
+        <v>533.6871407711199</v>
       </c>
       <c r="AD2" t="n">
-        <v>364373.3817960292</v>
+        <v>431206.2987708518</v>
       </c>
       <c r="AE2" t="n">
-        <v>498551.7359924152</v>
+        <v>589995.4814575724</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.251507814505636e-06</v>
+        <v>3.607444392795593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>450970.6580310544</v>
+        <v>533687.1407711199</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.1190953975262</v>
+        <v>738.1327594492616</v>
       </c>
       <c r="AB2" t="n">
-        <v>908.6770451895748</v>
+        <v>1009.945805597567</v>
       </c>
       <c r="AC2" t="n">
-        <v>821.9541833329238</v>
+        <v>913.5579953791754</v>
       </c>
       <c r="AD2" t="n">
-        <v>664119.0953975262</v>
+        <v>738132.7594492616</v>
       </c>
       <c r="AE2" t="n">
-        <v>908677.0451895747</v>
+        <v>1009945.805597567</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.774920296750212e-06</v>
+        <v>2.635478328076577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>821954.1833329238</v>
+        <v>913557.9953791754</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.2959376259067</v>
+        <v>446.928427379717</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.6518763844175</v>
+        <v>611.5071914315832</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.8163288838917</v>
+        <v>553.1458033370858</v>
       </c>
       <c r="AD3" t="n">
-        <v>389295.9376259067</v>
+        <v>446928.427379717</v>
       </c>
       <c r="AE3" t="n">
-        <v>532651.8763844175</v>
+        <v>611507.1914315833</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384340116064985e-06</v>
+        <v>3.54037120098199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>481816.3288838917</v>
+        <v>553145.8033370858</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>379.2297659012737</v>
+        <v>436.6916634544918</v>
       </c>
       <c r="AB4" t="n">
-        <v>518.8788961426202</v>
+        <v>597.5007994149391</v>
       </c>
       <c r="AC4" t="n">
-        <v>469.3578225458724</v>
+        <v>540.4761617164154</v>
       </c>
       <c r="AD4" t="n">
-        <v>379229.7659012736</v>
+        <v>436691.6634544918</v>
       </c>
       <c r="AE4" t="n">
-        <v>518878.8961426202</v>
+        <v>597500.7994149391</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.422453733112268e-06</v>
+        <v>3.596963945972645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.37239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>469357.8225458724</v>
+        <v>540476.1617164154</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>795.6188966539885</v>
+        <v>887.3917822829588</v>
       </c>
       <c r="AB2" t="n">
-        <v>1088.600874630458</v>
+        <v>1214.168585481984</v>
       </c>
       <c r="AC2" t="n">
-        <v>984.7063350166502</v>
+        <v>1098.290039779896</v>
       </c>
       <c r="AD2" t="n">
-        <v>795618.8966539885</v>
+        <v>887391.7822829589</v>
       </c>
       <c r="AE2" t="n">
-        <v>1088600.874630458</v>
+        <v>1214168.585481984</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.600321125426763e-06</v>
+        <v>2.353180163095931e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.833984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>984706.3350166501</v>
+        <v>1098290.039779895</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.4095710758522</v>
+        <v>503.8338625813585</v>
       </c>
       <c r="AB3" t="n">
-        <v>609.4290252294245</v>
+        <v>689.3677183650886</v>
       </c>
       <c r="AC3" t="n">
-        <v>551.2659744005364</v>
+        <v>623.5754308579933</v>
       </c>
       <c r="AD3" t="n">
-        <v>445409.5710758522</v>
+        <v>503833.8625813585</v>
       </c>
       <c r="AE3" t="n">
-        <v>609429.0252294245</v>
+        <v>689367.7183650887</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.257590649980581e-06</v>
+        <v>3.319657192245366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.05924479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>551265.9744005364</v>
+        <v>623575.4308579933</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>390.9068644154455</v>
+        <v>441.0579906538768</v>
       </c>
       <c r="AB4" t="n">
-        <v>534.8560174869386</v>
+        <v>603.4750009178987</v>
       </c>
       <c r="AC4" t="n">
-        <v>483.8101098531197</v>
+        <v>545.880193812777</v>
       </c>
       <c r="AD4" t="n">
-        <v>390906.8644154455</v>
+        <v>441057.9906538768</v>
       </c>
       <c r="AE4" t="n">
-        <v>534856.0174869386</v>
+        <v>603475.0009178987</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.404820583532913e-06</v>
+        <v>3.536150340741976e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.19661458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>483810.1098531197</v>
+        <v>545880.1938127769</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>392.3516135184626</v>
+        <v>442.5027397568939</v>
       </c>
       <c r="AB5" t="n">
-        <v>536.8327869475187</v>
+        <v>605.4517703784788</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.5982192107954</v>
+        <v>547.6683031704528</v>
       </c>
       <c r="AD5" t="n">
-        <v>392351.6135184626</v>
+        <v>442502.7397568939</v>
       </c>
       <c r="AE5" t="n">
-        <v>536832.7869475187</v>
+        <v>605451.7703784788</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.404235563929393e-06</v>
+        <v>3.53529010306583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.19986979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>485598.2192107954</v>
+        <v>547668.3031704527</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1145.355009355396</v>
+        <v>1248.338951855346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1567.125253296873</v>
+        <v>1708.032426756196</v>
       </c>
       <c r="AC2" t="n">
-        <v>1417.561018596326</v>
+        <v>1545.020209185151</v>
       </c>
       <c r="AD2" t="n">
-        <v>1145355.009355396</v>
+        <v>1248338.951855346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1567125.253296873</v>
+        <v>1708032.426756196</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.301574561498412e-06</v>
+        <v>1.883082290951032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.53515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1417561.018596326</v>
+        <v>1545020.209185151</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>571.7023317833285</v>
+        <v>640.1877012493699</v>
       </c>
       <c r="AB3" t="n">
-        <v>782.2283520727693</v>
+        <v>875.9330559374706</v>
       </c>
       <c r="AC3" t="n">
-        <v>707.5735760153309</v>
+        <v>792.3352344585631</v>
       </c>
       <c r="AD3" t="n">
-        <v>571702.3317833286</v>
+        <v>640187.7012493699</v>
       </c>
       <c r="AE3" t="n">
-        <v>782228.3520727693</v>
+        <v>875933.0559374706</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.993677188053677e-06</v>
+        <v>2.88439734284213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>707573.5760153309</v>
+        <v>792335.2344585632</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.7569982812369</v>
+        <v>508.8309647395412</v>
       </c>
       <c r="AB4" t="n">
-        <v>614.0091228098976</v>
+        <v>696.2049739945024</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.4089538961365</v>
+        <v>629.7601484062843</v>
       </c>
       <c r="AD4" t="n">
-        <v>448756.9982812369</v>
+        <v>508830.9647395412</v>
       </c>
       <c r="AE4" t="n">
-        <v>614009.1228098975</v>
+        <v>696204.9739945024</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.268014848702113e-06</v>
+        <v>3.281301527811202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>555408.9538961365</v>
+        <v>629760.1484062843</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>416.663281130474</v>
+        <v>468.1553418890003</v>
       </c>
       <c r="AB5" t="n">
-        <v>570.0970831293506</v>
+        <v>640.5507923285603</v>
       </c>
       <c r="AC5" t="n">
-        <v>515.6878176517662</v>
+        <v>579.4175237274051</v>
       </c>
       <c r="AD5" t="n">
-        <v>416663.2811304741</v>
+        <v>468155.3418890003</v>
       </c>
       <c r="AE5" t="n">
-        <v>570097.0831293506</v>
+        <v>640550.7923285603</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.356480509425794e-06</v>
+        <v>3.409291213530216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>515687.8176517662</v>
+        <v>579417.5237274051</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.4340305197767</v>
+        <v>468.4226561235094</v>
       </c>
       <c r="AB6" t="n">
-        <v>558.8374593948803</v>
+        <v>640.9165434572874</v>
       </c>
       <c r="AC6" t="n">
-        <v>505.5027966035324</v>
+        <v>579.7483680817415</v>
       </c>
       <c r="AD6" t="n">
-        <v>408434.0305197767</v>
+        <v>468422.6561235094</v>
       </c>
       <c r="AE6" t="n">
-        <v>558837.4593948803</v>
+        <v>640916.5434572874</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.359021544361475e-06</v>
+        <v>3.412967513013635e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.98828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>505502.7966035324</v>
+        <v>579748.3680817415</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>537.381499365113</v>
+        <v>610.1584416093316</v>
       </c>
       <c r="AB2" t="n">
-        <v>735.2690750299022</v>
+        <v>834.8456981005346</v>
       </c>
       <c r="AC2" t="n">
-        <v>665.0960264656755</v>
+        <v>755.1691963871152</v>
       </c>
       <c r="AD2" t="n">
-        <v>537381.499365113</v>
+        <v>610158.4416093316</v>
       </c>
       <c r="AE2" t="n">
-        <v>735269.0750299022</v>
+        <v>834845.6981005346</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.978575289501975e-06</v>
+        <v>2.97119606995459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.75130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>665096.0264656756</v>
+        <v>755169.1963871152</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.2995276518471</v>
+        <v>422.9701922842397</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.187173727903</v>
+        <v>578.7264772112155</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.3545732879276</v>
+        <v>523.4936344738885</v>
       </c>
       <c r="AD3" t="n">
-        <v>366299.5276518471</v>
+        <v>422970.1922842397</v>
       </c>
       <c r="AE3" t="n">
-        <v>501187.173727903</v>
+        <v>578726.4772112155</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436031100531275e-06</v>
+        <v>3.658150422978104e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.603515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>453354.5732879275</v>
+        <v>523493.6344738885</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.9161063151078</v>
+        <v>424.5867709475003</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.3990479733936</v>
+        <v>580.938351456706</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.3553493598134</v>
+        <v>525.4944105457745</v>
       </c>
       <c r="AD4" t="n">
-        <v>367916.1063151078</v>
+        <v>424586.7709475003</v>
       </c>
       <c r="AE4" t="n">
-        <v>503399.0479733936</v>
+        <v>580938.3514567059</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436234730983546e-06</v>
+        <v>3.658456211695231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.603515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>455355.3493598134</v>
+        <v>525494.4105457745</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.7520337851441</v>
+        <v>446.532228867216</v>
       </c>
       <c r="AB2" t="n">
-        <v>525.0664625697102</v>
+        <v>610.9650951477347</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.954856317465</v>
+        <v>552.6554439617308</v>
       </c>
       <c r="AD2" t="n">
-        <v>383752.0337851442</v>
+        <v>446532.228867216</v>
       </c>
       <c r="AE2" t="n">
-        <v>525066.4625697102</v>
+        <v>610965.0951477347</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.326269924736954e-06</v>
+        <v>3.567908934086643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.84049479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>474954.856317465</v>
+        <v>552655.4439617308</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>359.9104778549427</v>
+        <v>414.8325704534852</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.4453939307945</v>
+        <v>567.5922240158394</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.4470966854898</v>
+        <v>513.4220187764568</v>
       </c>
       <c r="AD3" t="n">
-        <v>359910.4778549427</v>
+        <v>414832.5704534852</v>
       </c>
       <c r="AE3" t="n">
-        <v>492445.3939307944</v>
+        <v>567592.2240158394</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.427767158163291e-06</v>
+        <v>3.723579985874776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.22200520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>445447.0966854898</v>
+        <v>513422.0187764567</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.5437797253777</v>
+        <v>411.8045195915374</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.6294643203663</v>
+        <v>563.4491112383465</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.8543014098109</v>
+        <v>509.6743188675523</v>
       </c>
       <c r="AD2" t="n">
-        <v>350543.7797253777</v>
+        <v>411804.5195915374</v>
       </c>
       <c r="AE2" t="n">
-        <v>479629.4643203663</v>
+        <v>563449.1112383466</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.381953396891357e-06</v>
+        <v>3.721755197741267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.99348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>433854.3014098109</v>
+        <v>509674.3188675523</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>352.6714269540881</v>
+        <v>413.9321668202478</v>
       </c>
       <c r="AB3" t="n">
-        <v>482.5406051238591</v>
+        <v>566.3602520418393</v>
       </c>
       <c r="AC3" t="n">
-        <v>436.48760702083</v>
+        <v>512.3076244785715</v>
       </c>
       <c r="AD3" t="n">
-        <v>352671.4269540882</v>
+        <v>413932.1668202478</v>
       </c>
       <c r="AE3" t="n">
-        <v>482540.6051238591</v>
+        <v>566360.2520418393</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.382721379654852e-06</v>
+        <v>3.722955155660486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.98697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>436487.60702083</v>
+        <v>512307.6244785715</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.8709757072378</v>
+        <v>451.4115297936995</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.9656923886389</v>
+        <v>617.6411699349139</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.5773877115695</v>
+        <v>558.6943635411513</v>
       </c>
       <c r="AD2" t="n">
-        <v>385870.9757072378</v>
+        <v>451411.5297936994</v>
       </c>
       <c r="AE2" t="n">
-        <v>527965.6923886389</v>
+        <v>617641.169934914</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.101795683929005e-06</v>
+        <v>3.425246262742495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.23567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>477577.3877115696</v>
+        <v>558694.3635411514</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>731.8211950487636</v>
+        <v>806.4960453103055</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.310044738236</v>
+        <v>1103.483469287962</v>
       </c>
       <c r="AC2" t="n">
-        <v>905.7464194158923</v>
+        <v>998.1685557278948</v>
       </c>
       <c r="AD2" t="n">
-        <v>731821.1950487635</v>
+        <v>806496.0453103054</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001310.044738236</v>
+        <v>1103483.469287962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.684935144832721e-06</v>
+        <v>2.48929084025569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.02669270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>905746.4194158923</v>
+        <v>998168.5557278949</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.5375016573545</v>
+        <v>469.6178711319029</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.0837655207978</v>
+        <v>642.5518893609361</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.3438412325205</v>
+        <v>581.2276388675684</v>
       </c>
       <c r="AD3" t="n">
-        <v>411537.5016573545</v>
+        <v>469617.8711319029</v>
       </c>
       <c r="AE3" t="n">
-        <v>563083.7655207978</v>
+        <v>642551.8893609361</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.323851522370693e-06</v>
+        <v>3.433213632282512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.79557291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>509343.8412325205</v>
+        <v>581227.6388675685</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.5927760038527</v>
+        <v>443.5025532778088</v>
       </c>
       <c r="AB4" t="n">
-        <v>527.5850472811626</v>
+        <v>606.819759346454</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.2330708389122</v>
+        <v>548.9057331913091</v>
       </c>
       <c r="AD4" t="n">
-        <v>385592.7760038527</v>
+        <v>443502.5532778088</v>
       </c>
       <c r="AE4" t="n">
-        <v>527585.0472811626</v>
+        <v>606819.7593464541</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.412086583140425e-06</v>
+        <v>3.563570417371296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.291015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>477233.0708389122</v>
+        <v>548905.733191309</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1048.682845468864</v>
+        <v>1150.945298702772</v>
       </c>
       <c r="AB2" t="n">
-        <v>1434.854133792448</v>
+        <v>1574.774133808112</v>
       </c>
       <c r="AC2" t="n">
-        <v>1297.913669093722</v>
+        <v>1424.479900686844</v>
       </c>
       <c r="AD2" t="n">
-        <v>1048682.845468864</v>
+        <v>1150945.298702772</v>
       </c>
       <c r="AE2" t="n">
-        <v>1434854.133792449</v>
+        <v>1574774.133808112</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.369812423782663e-06</v>
+        <v>1.989199159040591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1297913.669093722</v>
+        <v>1424479.900686844</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.343013931789</v>
+        <v>601.0459833252866</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.6893940297164</v>
+        <v>822.3776306630173</v>
       </c>
       <c r="AC3" t="n">
-        <v>669.9990378276131</v>
+        <v>743.8910638067919</v>
       </c>
       <c r="AD3" t="n">
-        <v>541343.013931789</v>
+        <v>601045.9833252865</v>
       </c>
       <c r="AE3" t="n">
-        <v>740689.3940297164</v>
+        <v>822377.6306630173</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.05533545456936e-06</v>
+        <v>2.984694463848989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.029296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>669999.0378276131</v>
+        <v>743891.0638067919</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.6977745298121</v>
+        <v>487.2300622141664</v>
       </c>
       <c r="AB4" t="n">
-        <v>585.1949638058167</v>
+        <v>666.6496661947222</v>
       </c>
       <c r="AC4" t="n">
-        <v>529.3447777864787</v>
+        <v>603.0255577017801</v>
       </c>
       <c r="AD4" t="n">
-        <v>427697.7745298121</v>
+        <v>487230.0622141664</v>
       </c>
       <c r="AE4" t="n">
-        <v>585194.9638058166</v>
+        <v>666649.6661947222</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.318669675282688e-06</v>
+        <v>3.367100259923644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.32356770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>529344.7777864787</v>
+        <v>603025.5577017801</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>409.0628055676626</v>
+        <v>460.2367921204535</v>
       </c>
       <c r="AB5" t="n">
-        <v>559.6977771549952</v>
+        <v>629.7162831934742</v>
       </c>
       <c r="AC5" t="n">
-        <v>506.2810068440855</v>
+        <v>569.6170449378426</v>
       </c>
       <c r="AD5" t="n">
-        <v>409062.8055676626</v>
+        <v>460236.7921204535</v>
       </c>
       <c r="AE5" t="n">
-        <v>559697.7771549951</v>
+        <v>629716.2831934742</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.370197776849296e-06</v>
+        <v>3.441927772452846e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.03385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>506281.0068440855</v>
+        <v>569617.0449378426</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.5540222473616</v>
+        <v>512.7713081813516</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.9982755910646</v>
+        <v>701.5963257272714</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.1668612188892</v>
+        <v>634.6369570964875</v>
       </c>
       <c r="AD2" t="n">
-        <v>427554.0222473616</v>
+        <v>512771.3081813516</v>
       </c>
       <c r="AE2" t="n">
-        <v>584998.2755910646</v>
+        <v>701596.3257272714</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819389027386065e-06</v>
+        <v>3.03281311119766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>529166.8612188891</v>
+        <v>634636.9570964875</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>433.2496692227175</v>
+        <v>496.6194048286523</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.7913110569572</v>
+        <v>679.4965789884232</v>
       </c>
       <c r="AC2" t="n">
-        <v>536.2161403175108</v>
+        <v>614.6463791692056</v>
       </c>
       <c r="AD2" t="n">
-        <v>433249.6692227175</v>
+        <v>496619.4048286523</v>
       </c>
       <c r="AE2" t="n">
-        <v>592791.3110569571</v>
+        <v>679496.5789884231</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208857666179217e-06</v>
+        <v>3.361675108599205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.400390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>536216.1403175108</v>
+        <v>614646.3791692056</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.0274496739002</v>
+        <v>419.3970957712839</v>
       </c>
       <c r="AB3" t="n">
-        <v>487.1324634663789</v>
+        <v>573.8376089282965</v>
       </c>
       <c r="AC3" t="n">
-        <v>440.6412248478536</v>
+        <v>519.0713529183216</v>
       </c>
       <c r="AD3" t="n">
-        <v>356027.4496739002</v>
+        <v>419397.095771284</v>
       </c>
       <c r="AE3" t="n">
-        <v>487132.4634663789</v>
+        <v>573837.6089282965</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.436379934420151e-06</v>
+        <v>3.707942755224257e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>440641.2248478535</v>
+        <v>519071.3529183216</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.1416425835102</v>
+        <v>670.4670407601988</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.0355394127621</v>
+        <v>917.3625840863679</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.058814247789</v>
+        <v>829.8107865876374</v>
       </c>
       <c r="AD2" t="n">
-        <v>597141.6425835103</v>
+        <v>670467.0407601987</v>
       </c>
       <c r="AE2" t="n">
-        <v>817035.539412762</v>
+        <v>917362.5840863679</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.876408326017446e-06</v>
+        <v>2.80131005626215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>739058.814247789</v>
+        <v>829810.7865876374</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.7674534689774</v>
+        <v>432.9310015401957</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.1416075263083</v>
+        <v>592.3552958751048</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.0726541062749</v>
+        <v>535.8217378126634</v>
       </c>
       <c r="AD3" t="n">
-        <v>375767.4534689774</v>
+        <v>432931.0015401957</v>
       </c>
       <c r="AE3" t="n">
-        <v>514141.6075263083</v>
+        <v>592355.2958751048</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.418763585414381e-06</v>
+        <v>3.610998022974558e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>465072.6541062749</v>
+        <v>535821.7378126634</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.9454698116273</v>
+        <v>430.9384256822534</v>
       </c>
       <c r="AB4" t="n">
-        <v>511.6486891060759</v>
+        <v>589.6289656800255</v>
       </c>
       <c r="AC4" t="n">
-        <v>462.8176563212365</v>
+        <v>533.3556047449739</v>
       </c>
       <c r="AD4" t="n">
-        <v>373945.4698116274</v>
+        <v>430938.4256822534</v>
       </c>
       <c r="AE4" t="n">
-        <v>511648.6891060759</v>
+        <v>589628.9656800255</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.429832060095951e-06</v>
+        <v>3.627522267193179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.47981770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>462817.6563212365</v>
+        <v>533355.6047449739</v>
       </c>
     </row>
   </sheetData>
